--- a/tables/gdp.xlsx
+++ b/tables/gdp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -30,25 +30,25 @@
     <t>Реальный рост ВВП в %</t>
   </si>
   <si>
-    <t>млрдтенге</t>
-  </si>
-  <si>
     <t>103 765,5</t>
   </si>
   <si>
     <t>46 727,9</t>
   </si>
   <si>
-    <t>млрддолл.США</t>
-  </si>
-  <si>
-    <t>надушунаселения.$</t>
-  </si>
-  <si>
     <t>4,9*</t>
   </si>
   <si>
     <t>2023 (янв-июнь)</t>
+  </si>
+  <si>
+    <t>млрд долл.США</t>
+  </si>
+  <si>
+    <t>млрд тенге</t>
+  </si>
+  <si>
+    <t>на душу населения.$</t>
   </si>
 </sst>
 </file>
@@ -242,6 +242,12 @@
     <xf numFmtId="3" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -250,12 +256,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -529,7 +529,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -540,49 +540,49 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.21875" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
     <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
     <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="42" thickBot="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12">
+      <c r="B1" s="9">
         <v>2019</v>
       </c>
-      <c r="C1" s="12">
+      <c r="C1" s="9">
         <v>2020</v>
       </c>
-      <c r="D1" s="12">
+      <c r="D1" s="9">
         <v>2021</v>
       </c>
-      <c r="E1" s="12">
+      <c r="E1" s="9">
         <v>2022</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>9</v>
+      <c r="F1" s="8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="31.2" thickBot="1">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3">
         <v>69532.600000000006</v>
@@ -594,15 +594,15 @@
         <v>83951.6</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.4" customHeight="1" thickBot="1">
       <c r="A4" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="6">
         <v>181.7</v>
@@ -620,9 +620,9 @@
         <v>103.4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.8" thickBot="1">
+    <row r="5" spans="1:6" ht="16.2" thickBot="1">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" s="7">
         <v>9812</v>
@@ -638,7 +638,7 @@
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="28.8" thickBot="1">
+    <row r="6" spans="1:6" ht="16.2" thickBot="1">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -675,7 +675,7 @@
         <v>3.2</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
